--- a/接口文档/商品api/用户信息_app.xlsx
+++ b/接口文档/商品api/用户信息_app.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" activeTab="3"/>
+    <workbookView windowWidth="21495" windowHeight="10350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="封面" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>商品类目接口
 版本：1.0
@@ -56,7 +56,7 @@
     <t>接口地址：</t>
   </si>
   <si>
-    <t>http://192.168.1.131/api/useredit/user_info?id=1</t>
+    <t>http://192.168.1.131/api/useredit/user_info?id=1478767953618</t>
   </si>
   <si>
     <t>http请求方式：</t>
@@ -99,16 +99,118 @@
   </si>
   <si>
     <t>响应参数</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "status": "0",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "msg": "查询成功！",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "data": {</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "id": "1478767953618",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "nickname": "小小蜗牛",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "realName": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "idNumber": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "sex": "1",</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "birthday": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "educationBackground": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "trade": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "iconUrl": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "integral": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "createdAt": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "lastModified": null,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        "addressList": []</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
   <si>
     <t xml:space="preserve">编辑用户
 </t>
   </si>
   <si>
-    <t>http://192.168.1.131/api/useredit/user_info</t>
-  </si>
-  <si>
     <t>POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "nickname": "小小蜗牛",</t>
+  </si>
+  <si>
+    <t>昵称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "realName": null,</t>
+  </si>
+  <si>
+    <t>真实姓名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "idNumber": null,</t>
+  </si>
+  <si>
+    <t>身份证号码</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "sex": "1",</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "birthday": null,</t>
+  </si>
+  <si>
+    <t>生日</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "educationBackground": null,</t>
+  </si>
+  <si>
+    <t>教育背景</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "trade": null,</t>
+  </si>
+  <si>
+    <t>所在行业</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    "iconUrl": null,</t>
+  </si>
+  <si>
+    <t>头像url</t>
   </si>
 </sst>
 </file>
@@ -117,8 +219,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -150,12 +252,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF555555"/>
       <name val="Monaco"/>
@@ -165,6 +261,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -182,11 +284,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -197,7 +314,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,24 +327,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -238,16 +359,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,22 +395,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -285,49 +403,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,6 +410,33 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -351,181 +453,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,17 +717,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="hair">
@@ -649,12 +740,71 @@
       <left style="hair">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
       <right style="hair">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -670,30 +820,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -722,30 +848,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -764,10 +866,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -776,7 +878,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -785,7 +887,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,125 +897,125 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyBorder="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -956,26 +1058,17 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -983,26 +1076,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1370,186 +1466,186 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="7" spans="7:14">
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="7:14">
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
     </row>
     <row r="9" spans="7:14">
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
     </row>
     <row r="10" spans="7:14">
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
     </row>
     <row r="11" spans="7:14">
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="33"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
     </row>
     <row r="12" spans="7:14">
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-      <c r="L12" s="33"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
     </row>
     <row r="13" spans="7:14">
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-      <c r="L13" s="33"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="7:14">
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
     </row>
     <row r="15" spans="7:14">
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
     </row>
     <row r="16" spans="7:14">
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="31"/>
     </row>
     <row r="17" spans="7:14">
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
     </row>
     <row r="18" spans="7:14">
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
     </row>
     <row r="19" spans="7:14">
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-      <c r="L19" s="33"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
     </row>
     <row r="20" spans="7:14">
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="31"/>
+      <c r="K20" s="31"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
     </row>
     <row r="21" spans="7:14">
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
     </row>
     <row r="22" spans="7:14">
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
+      <c r="G22" s="31"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="31"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
     </row>
     <row r="23" spans="7:14">
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33"/>
-      <c r="L23" s="33"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="31"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
     </row>
     <row r="24" spans="7:14">
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="31"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1576,50 +1672,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="30">
+      <c r="A2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="30">
+      <c r="A3" s="28">
         <v>2</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="30">
+      <c r="A4" s="28">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="29" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="30">
+      <c r="A5" s="28">
         <v>4</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="30" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="30">
+      <c r="A6" s="28">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="29" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1641,8 +1737,8 @@
   <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -1706,17 +1802,17 @@
       </c>
     </row>
     <row r="5" ht="21" customHeight="1" spans="1:5">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="27" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1724,310 +1820,348 @@
       <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="23"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="20"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="24"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="17"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
     </row>
     <row r="10" ht="13.5" spans="1:2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="14" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25"/>
-      <c r="E11" s="24"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25"/>
-      <c r="E12" s="24"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="20"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="17"/>
-      <c r="B13" s="25"/>
-      <c r="E13" s="24"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="20"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="17"/>
-      <c r="B14" s="25"/>
-      <c r="E14" s="24"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="20"/>
     </row>
     <row r="15" ht="13.5" spans="1:5">
-      <c r="A15" s="26"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23"/>
     </row>
     <row r="16" spans="2:5">
-      <c r="B16" s="25"/>
-      <c r="E16" s="24"/>
+      <c r="B16" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="20"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="25"/>
-      <c r="E17" s="24"/>
+      <c r="B17" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="20"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="25"/>
-      <c r="E18" s="24"/>
+      <c r="B18" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="20"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="25"/>
-      <c r="E19" s="24"/>
+      <c r="B19" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="20"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="25"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="24"/>
     </row>
     <row r="21" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B21" s="25"/>
-      <c r="E21" s="29"/>
+      <c r="B21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="24"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="25"/>
-      <c r="E22" s="29"/>
+      <c r="B22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="24"/>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B23" s="25"/>
+      <c r="B23" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="24" ht="21" customHeight="1" spans="2:2">
-      <c r="B24" s="25"/>
+      <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="25" spans="2:2">
-      <c r="B25" s="25"/>
+      <c r="B25" s="14" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="25"/>
+      <c r="B26" s="14" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="25"/>
+      <c r="B27" s="14" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="25"/>
+      <c r="B28" s="14" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="25"/>
+      <c r="B29" s="14"/>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="25"/>
+      <c r="B30" s="14"/>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="25"/>
+      <c r="B31" s="14"/>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="25"/>
+      <c r="B32" s="14"/>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="25"/>
+      <c r="B33" s="14"/>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="25"/>
+      <c r="B34" s="14"/>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="25"/>
+      <c r="B35" s="14"/>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="25"/>
+      <c r="B36" s="14"/>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="25"/>
+      <c r="B37" s="14"/>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="25"/>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="25"/>
+      <c r="B39" s="14"/>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="25"/>
+      <c r="B40" s="14"/>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="25"/>
+      <c r="B41" s="14"/>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="25"/>
+      <c r="B42" s="14"/>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="25"/>
+      <c r="B43" s="14"/>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="25"/>
+      <c r="B44" s="14"/>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="25"/>
+      <c r="B45" s="14"/>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="25"/>
+      <c r="B46" s="14"/>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="25"/>
+      <c r="B47" s="14"/>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="25"/>
+      <c r="B48" s="14"/>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="25"/>
+      <c r="B49" s="14"/>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="25"/>
+      <c r="B50" s="14"/>
     </row>
     <row r="51" spans="2:2">
-      <c r="B51" s="25"/>
+      <c r="B51" s="14"/>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="25"/>
+      <c r="B52" s="14"/>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="25"/>
+      <c r="B53" s="14"/>
     </row>
     <row r="54" spans="2:2">
-      <c r="B54" s="25"/>
+      <c r="B54" s="14"/>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="25"/>
+      <c r="B55" s="14"/>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="25"/>
+      <c r="B56" s="14"/>
     </row>
     <row r="57" spans="2:2">
-      <c r="B57" s="25"/>
+      <c r="B57" s="14"/>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="25"/>
+      <c r="B58" s="14"/>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="25"/>
+      <c r="B59" s="14"/>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="25"/>
+      <c r="B60" s="14"/>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="25"/>
+      <c r="B61" s="14"/>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="25"/>
+      <c r="B62" s="14"/>
     </row>
     <row r="63" spans="2:2">
-      <c r="B63" s="25"/>
+      <c r="B63" s="14"/>
     </row>
     <row r="64" spans="2:2">
-      <c r="B64" s="25"/>
+      <c r="B64" s="14"/>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="25"/>
+      <c r="B65" s="14"/>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="25"/>
+      <c r="B66" s="14"/>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="25"/>
+      <c r="B67" s="14"/>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="25"/>
+      <c r="B68" s="14"/>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="25"/>
+      <c r="B69" s="14"/>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="25"/>
+      <c r="B70" s="14"/>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="25"/>
+      <c r="B71" s="14"/>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="25"/>
+      <c r="B72" s="14"/>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="25"/>
+      <c r="B73" s="14"/>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="25"/>
+      <c r="B74" s="14"/>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="25"/>
+      <c r="B75" s="14"/>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="25"/>
+      <c r="B76" s="14"/>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="25"/>
+      <c r="B77" s="14"/>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="25"/>
+      <c r="B78" s="14"/>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="25"/>
+      <c r="B79" s="14"/>
     </row>
     <row r="80" spans="2:2">
-      <c r="B80" s="25"/>
+      <c r="B80" s="14"/>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="25"/>
+      <c r="B81" s="14"/>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="25"/>
+      <c r="B82" s="14"/>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="25"/>
+      <c r="B83" s="14"/>
     </row>
     <row r="84" spans="2:2">
-      <c r="B84" s="25"/>
+      <c r="B84" s="14"/>
     </row>
     <row r="85" spans="2:2">
-      <c r="B85" s="25"/>
+      <c r="B85" s="14"/>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="25"/>
+      <c r="B86" s="14"/>
     </row>
     <row r="87" spans="2:2">
-      <c r="B87" s="25"/>
+      <c r="B87" s="14"/>
     </row>
     <row r="88" spans="2:2">
-      <c r="B88" s="25"/>
+      <c r="B88" s="14"/>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="25"/>
+      <c r="B89" s="14"/>
     </row>
     <row r="90" spans="2:2">
-      <c r="B90" s="25"/>
+      <c r="B90" s="14"/>
     </row>
     <row r="91" spans="2:2">
-      <c r="B91" s="25"/>
+      <c r="B91" s="14"/>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="25"/>
+      <c r="B92" s="14"/>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="25"/>
+      <c r="B93" s="14"/>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="25"/>
+      <c r="B94" s="14"/>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="25"/>
+      <c r="B95" s="14"/>
     </row>
     <row r="96" spans="2:2">
-      <c r="B96" s="25"/>
+      <c r="B96" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2040,7 +2174,7 @@
     <mergeCell ref="A6:A15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/useredit/user_info?id=1" tooltip="http://192.168.1.131/api/useredit/user_info?id=1"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/useredit/user_info?id=1478767953618" tooltip="http://192.168.1.131/api/useredit/user_info?id=1478767953618"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2051,10 +2185,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
@@ -2072,7 +2206,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
@@ -2083,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="8"/>
@@ -2094,7 +2228,7 @@
         <v>12</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -2119,655 +2253,536 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:5">
       <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
+      <c r="B5" s="14" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" s="15"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:5">
       <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
+      <c r="E6" s="16" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="7" s="1" customFormat="1" spans="1:5">
       <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
+      <c r="B7" s="14" t="s">
+        <v>49</v>
+      </c>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="16"/>
+      <c r="E7" s="16" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:5">
       <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
+      <c r="B8" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
+      <c r="E8" s="16" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:5">
       <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
+      <c r="B9" s="14" t="s">
+        <v>53</v>
+      </c>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
+      <c r="E9" s="16" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:5">
       <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="C10" s="15"/>
       <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
+      <c r="E10" s="16" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" s="1" customFormat="1" spans="1:5">
       <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
+      <c r="B11" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="C11" s="15"/>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
+      <c r="E11" s="16" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" s="1" customFormat="1" spans="1:5">
       <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="C12" s="15"/>
       <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
+      <c r="E12" s="16" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:5">
       <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
+      <c r="B13" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
+      <c r="E13" s="16" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:5">
       <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
+      <c r="B14" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="15"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
     </row>
-    <row r="15" s="1" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A15" s="17"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
-      <c r="A16" s="10" t="s">
+    <row r="15" s="1" customFormat="1" spans="1:5">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="16"/>
+    </row>
+    <row r="16" s="1" customFormat="1" spans="1:5">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="16"/>
+    </row>
+    <row r="17" s="1" customFormat="1" spans="1:5">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" s="1" customFormat="1" spans="1:5">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="21.95" customHeight="1" spans="1:5">
+      <c r="A19" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="23"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A17" s="17"/>
-      <c r="B17" s="24"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" spans="1:5">
-      <c r="A18" s="17"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" spans="1:5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="21" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:5">
+      <c r="A20" s="13"/>
+      <c r="B20" s="20"/>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" spans="1:5">
+      <c r="A21" s="13"/>
+      <c r="B21" s="20"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" spans="1:5">
+      <c r="A22" s="13"/>
+      <c r="B22" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" s="1" customFormat="1" spans="1:5">
-      <c r="A20" s="17"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" spans="1:5">
-      <c r="A21" s="17"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="24"/>
-    </row>
-    <row r="22" s="1" customFormat="1" spans="1:5">
-      <c r="A22" s="17"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="24"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
     </row>
     <row r="23" s="1" customFormat="1" spans="1:5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="25"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="24"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="24"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="E24" s="20"/>
     </row>
     <row r="25" s="1" customFormat="1" spans="1:5">
-      <c r="A25" s="26"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
-    </row>
-    <row r="26" s="1" customFormat="1" spans="2:5">
-      <c r="B26" s="25"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="24"/>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="2:5">
-      <c r="B27" s="25"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" s="1" customFormat="1" spans="2:5">
-      <c r="B28" s="25"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="24"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="E25" s="20"/>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:5">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="E26" s="20"/>
+    </row>
+    <row r="27" s="1" customFormat="1" spans="1:5">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="E27" s="20"/>
+    </row>
+    <row r="28" s="1" customFormat="1" spans="1:5">
+      <c r="A28" s="21"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23"/>
     </row>
     <row r="29" s="1" customFormat="1" spans="2:5">
-      <c r="B29" s="25"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="24"/>
+      <c r="B29" s="14"/>
+      <c r="E29" s="20"/>
     </row>
     <row r="30" s="1" customFormat="1" spans="2:5">
-      <c r="B30" s="25"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
-      <c r="B31" s="25"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="29"/>
+      <c r="B30" s="14"/>
+      <c r="E30" s="20"/>
+    </row>
+    <row r="31" s="1" customFormat="1" spans="2:5">
+      <c r="B31" s="14"/>
+      <c r="E31" s="20"/>
     </row>
     <row r="32" s="1" customFormat="1" spans="2:5">
-      <c r="B32" s="25"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B33" s="25"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
-      <c r="B34" s="25"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="2"/>
+      <c r="B32" s="14"/>
+      <c r="E32" s="20"/>
+    </row>
+    <row r="33" s="1" customFormat="1" spans="2:5">
+      <c r="B33" s="14"/>
+      <c r="E33" s="24"/>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="25.5" customHeight="1" spans="2:5">
+      <c r="B34" s="14"/>
+      <c r="E34" s="24"/>
     </row>
     <row r="35" s="1" customFormat="1" spans="2:5">
-      <c r="B35" s="25"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="2:5">
-      <c r="B36" s="25"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
+      <c r="B35" s="14"/>
+      <c r="E35" s="24"/>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
+      <c r="B36" s="14"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" s="1" customFormat="1" spans="2:5">
-      <c r="B37" s="25"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
+    <row r="37" s="1" customFormat="1" ht="21" customHeight="1" spans="2:5">
+      <c r="B37" s="14"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" s="1" customFormat="1" spans="2:5">
-      <c r="B38" s="25"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
+      <c r="B38" s="14"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" spans="2:5">
-      <c r="B39" s="25"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="B39" s="14"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" s="1" customFormat="1" spans="2:5">
-      <c r="B40" s="25"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="B40" s="14"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" s="1" customFormat="1" spans="2:5">
-      <c r="B41" s="25"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
+      <c r="B41" s="14"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" s="1" customFormat="1" spans="2:5">
-      <c r="B42" s="25"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
+      <c r="B42" s="14"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" s="1" customFormat="1" spans="2:5">
-      <c r="B43" s="25"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
+      <c r="B43" s="14"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" s="1" customFormat="1" spans="2:5">
-      <c r="B44" s="25"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="B44" s="14"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" s="1" customFormat="1" spans="2:5">
-      <c r="B45" s="25"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="B45" s="14"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" s="1" customFormat="1" spans="2:5">
-      <c r="B46" s="25"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="B46" s="14"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" s="1" customFormat="1" spans="2:5">
-      <c r="B47" s="25"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="B47" s="14"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" s="1" customFormat="1" spans="2:5">
-      <c r="B48" s="25"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="B48" s="14"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" s="1" customFormat="1" spans="2:5">
-      <c r="B49" s="25"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="B49" s="14"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" s="1" customFormat="1" spans="2:5">
-      <c r="B50" s="25"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
+      <c r="B50" s="14"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" s="1" customFormat="1" spans="2:5">
-      <c r="B51" s="25"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
+      <c r="B51" s="14"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" s="1" customFormat="1" spans="2:5">
-      <c r="B52" s="25"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
+      <c r="B52" s="14"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" s="1" customFormat="1" spans="2:5">
-      <c r="B53" s="25"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
+      <c r="B53" s="14"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" s="1" customFormat="1" spans="2:5">
-      <c r="B54" s="25"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
+      <c r="B54" s="14"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" s="1" customFormat="1" spans="2:5">
-      <c r="B55" s="25"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
+      <c r="B55" s="14"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" s="1" customFormat="1" spans="2:5">
-      <c r="B56" s="25"/>
-      <c r="C56" s="1"/>
-      <c r="D56" s="1"/>
+      <c r="B56" s="14"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" s="1" customFormat="1" spans="2:5">
-      <c r="B57" s="25"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
+      <c r="B57" s="14"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" s="1" customFormat="1" spans="2:5">
-      <c r="B58" s="25"/>
-      <c r="C58" s="1"/>
-      <c r="D58" s="1"/>
+      <c r="B58" s="14"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" s="1" customFormat="1" spans="2:5">
-      <c r="B59" s="25"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
+      <c r="B59" s="14"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" s="1" customFormat="1" spans="2:5">
-      <c r="B60" s="25"/>
-      <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="B60" s="14"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" s="1" customFormat="1" spans="2:5">
-      <c r="B61" s="25"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
+      <c r="B61" s="14"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" s="1" customFormat="1" spans="2:5">
-      <c r="B62" s="25"/>
-      <c r="C62" s="1"/>
-      <c r="D62" s="1"/>
+      <c r="B62" s="14"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" s="1" customFormat="1" spans="2:5">
-      <c r="B63" s="25"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
+      <c r="B63" s="14"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" s="1" customFormat="1" spans="2:5">
-      <c r="B64" s="25"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
+      <c r="B64" s="14"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" s="1" customFormat="1" spans="2:5">
-      <c r="B65" s="25"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
+      <c r="B65" s="14"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" s="1" customFormat="1" spans="2:5">
-      <c r="B66" s="25"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
+      <c r="B66" s="14"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" s="1" customFormat="1" spans="2:5">
-      <c r="B67" s="25"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
+      <c r="B67" s="14"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" s="1" customFormat="1" spans="2:5">
-      <c r="B68" s="25"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
+      <c r="B68" s="14"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" s="1" customFormat="1" spans="2:5">
-      <c r="B69" s="25"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
+      <c r="B69" s="14"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" s="1" customFormat="1" spans="2:5">
-      <c r="B70" s="25"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
+      <c r="B70" s="14"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" s="1" customFormat="1" spans="2:5">
-      <c r="B71" s="25"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
+      <c r="B71" s="14"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" s="1" customFormat="1" spans="2:5">
-      <c r="B72" s="25"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
+      <c r="B72" s="14"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" s="1" customFormat="1" spans="2:5">
-      <c r="B73" s="25"/>
-      <c r="C73" s="1"/>
-      <c r="D73" s="1"/>
+      <c r="B73" s="14"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" s="1" customFormat="1" spans="2:5">
-      <c r="B74" s="25"/>
-      <c r="C74" s="1"/>
-      <c r="D74" s="1"/>
+      <c r="B74" s="14"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" s="1" customFormat="1" spans="2:5">
-      <c r="B75" s="25"/>
-      <c r="C75" s="1"/>
-      <c r="D75" s="1"/>
+      <c r="B75" s="14"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" s="1" customFormat="1" spans="2:5">
-      <c r="B76" s="25"/>
-      <c r="C76" s="1"/>
-      <c r="D76" s="1"/>
+      <c r="B76" s="14"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" s="1" customFormat="1" spans="2:5">
-      <c r="B77" s="25"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
+      <c r="B77" s="14"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" s="1" customFormat="1" spans="2:5">
-      <c r="B78" s="25"/>
-      <c r="C78" s="1"/>
-      <c r="D78" s="1"/>
+      <c r="B78" s="14"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" s="1" customFormat="1" spans="2:5">
-      <c r="B79" s="25"/>
-      <c r="C79" s="1"/>
-      <c r="D79" s="1"/>
+      <c r="B79" s="14"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" s="1" customFormat="1" spans="2:5">
-      <c r="B80" s="25"/>
-      <c r="C80" s="1"/>
-      <c r="D80" s="1"/>
+      <c r="B80" s="14"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" s="1" customFormat="1" spans="2:5">
-      <c r="B81" s="25"/>
-      <c r="C81" s="1"/>
-      <c r="D81" s="1"/>
+      <c r="B81" s="14"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" s="1" customFormat="1" spans="2:5">
-      <c r="B82" s="25"/>
-      <c r="C82" s="1"/>
-      <c r="D82" s="1"/>
+      <c r="B82" s="14"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" s="1" customFormat="1" spans="2:5">
-      <c r="B83" s="25"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="1"/>
+      <c r="B83" s="14"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" s="1" customFormat="1" spans="2:5">
-      <c r="B84" s="25"/>
-      <c r="C84" s="1"/>
-      <c r="D84" s="1"/>
+      <c r="B84" s="14"/>
       <c r="E84" s="2"/>
     </row>
     <row r="85" s="1" customFormat="1" spans="2:5">
-      <c r="B85" s="25"/>
-      <c r="C85" s="1"/>
-      <c r="D85" s="1"/>
+      <c r="B85" s="14"/>
       <c r="E85" s="2"/>
     </row>
     <row r="86" s="1" customFormat="1" spans="2:5">
-      <c r="B86" s="25"/>
-      <c r="C86" s="1"/>
-      <c r="D86" s="1"/>
+      <c r="B86" s="14"/>
       <c r="E86" s="2"/>
     </row>
     <row r="87" s="1" customFormat="1" spans="2:5">
-      <c r="B87" s="25"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
+      <c r="B87" s="14"/>
       <c r="E87" s="2"/>
     </row>
     <row r="88" s="1" customFormat="1" spans="2:5">
-      <c r="B88" s="25"/>
-      <c r="C88" s="1"/>
-      <c r="D88" s="1"/>
+      <c r="B88" s="14"/>
       <c r="E88" s="2"/>
     </row>
     <row r="89" s="1" customFormat="1" spans="2:5">
-      <c r="B89" s="25"/>
-      <c r="C89" s="1"/>
-      <c r="D89" s="1"/>
+      <c r="B89" s="14"/>
       <c r="E89" s="2"/>
     </row>
     <row r="90" s="1" customFormat="1" spans="2:5">
-      <c r="B90" s="25"/>
-      <c r="C90" s="1"/>
-      <c r="D90" s="1"/>
+      <c r="B90" s="14"/>
       <c r="E90" s="2"/>
     </row>
     <row r="91" s="1" customFormat="1" spans="2:5">
-      <c r="B91" s="25"/>
-      <c r="C91" s="1"/>
-      <c r="D91" s="1"/>
+      <c r="B91" s="14"/>
       <c r="E91" s="2"/>
     </row>
     <row r="92" s="1" customFormat="1" spans="2:5">
-      <c r="B92" s="25"/>
-      <c r="C92" s="1"/>
-      <c r="D92" s="1"/>
+      <c r="B92" s="14"/>
       <c r="E92" s="2"/>
     </row>
     <row r="93" s="1" customFormat="1" spans="2:5">
-      <c r="B93" s="25"/>
-      <c r="C93" s="1"/>
-      <c r="D93" s="1"/>
+      <c r="B93" s="14"/>
       <c r="E93" s="2"/>
     </row>
     <row r="94" s="1" customFormat="1" spans="2:5">
-      <c r="B94" s="25"/>
-      <c r="C94" s="1"/>
-      <c r="D94" s="1"/>
+      <c r="B94" s="14"/>
       <c r="E94" s="2"/>
     </row>
     <row r="95" s="1" customFormat="1" spans="2:5">
-      <c r="B95" s="25"/>
-      <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
+      <c r="B95" s="14"/>
       <c r="E95" s="2"/>
     </row>
     <row r="96" s="1" customFormat="1" spans="2:5">
-      <c r="B96" s="25"/>
-      <c r="C96" s="1"/>
-      <c r="D96" s="1"/>
+      <c r="B96" s="14"/>
       <c r="E96" s="2"/>
     </row>
     <row r="97" s="1" customFormat="1" spans="2:5">
-      <c r="B97" s="25"/>
-      <c r="C97" s="1"/>
-      <c r="D97" s="1"/>
+      <c r="B97" s="14"/>
       <c r="E97" s="2"/>
     </row>
     <row r="98" s="1" customFormat="1" spans="2:5">
-      <c r="B98" s="25"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="1"/>
+      <c r="B98" s="14"/>
       <c r="E98" s="2"/>
     </row>
     <row r="99" s="1" customFormat="1" spans="2:5">
-      <c r="B99" s="25"/>
-      <c r="C99" s="1"/>
-      <c r="D99" s="1"/>
+      <c r="B99" s="14"/>
       <c r="E99" s="2"/>
     </row>
     <row r="100" s="1" customFormat="1" spans="2:5">
-      <c r="B100" s="25"/>
-      <c r="C100" s="1"/>
-      <c r="D100" s="1"/>
+      <c r="B100" s="14"/>
       <c r="E100" s="2"/>
     </row>
     <row r="101" s="1" customFormat="1" spans="2:5">
-      <c r="B101" s="25"/>
-      <c r="C101" s="1"/>
-      <c r="D101" s="1"/>
+      <c r="B101" s="14"/>
       <c r="E101" s="2"/>
     </row>
     <row r="102" s="1" customFormat="1" spans="2:5">
-      <c r="B102" s="25"/>
-      <c r="C102" s="1"/>
-      <c r="D102" s="1"/>
+      <c r="B102" s="14"/>
       <c r="E102" s="2"/>
     </row>
     <row r="103" s="1" customFormat="1" spans="2:5">
-      <c r="B103" s="25"/>
-      <c r="C103" s="1"/>
-      <c r="D103" s="1"/>
+      <c r="B103" s="14"/>
       <c r="E103" s="2"/>
     </row>
     <row r="104" s="1" customFormat="1" spans="2:5">
-      <c r="B104" s="25"/>
-      <c r="C104" s="1"/>
-      <c r="D104" s="1"/>
+      <c r="B104" s="14"/>
       <c r="E104" s="2"/>
     </row>
     <row r="105" s="1" customFormat="1" spans="2:5">
-      <c r="B105" s="25"/>
-      <c r="C105" s="1"/>
-      <c r="D105" s="1"/>
+      <c r="B105" s="14"/>
       <c r="E105" s="2"/>
     </row>
     <row r="106" s="1" customFormat="1" spans="2:5">
-      <c r="B106" s="25"/>
-      <c r="C106" s="1"/>
-      <c r="D106" s="1"/>
+      <c r="B106" s="14"/>
       <c r="E106" s="2"/>
+    </row>
+    <row r="107" s="1" customFormat="1" spans="2:5">
+      <c r="B107" s="14"/>
+      <c r="E107" s="2"/>
+    </row>
+    <row r="108" s="1" customFormat="1" spans="2:5">
+      <c r="B108" s="14"/>
+      <c r="E108" s="2"/>
+    </row>
+    <row r="109" s="1" customFormat="1" spans="2:5">
+      <c r="B109" s="14"/>
+      <c r="E109" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B19:E19"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A25"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="A4:A18"/>
+    <mergeCell ref="A19:A28"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/useredit/user_info" tooltip="http://192.168.1.131/api/useredit/user_info"/>
+    <hyperlink ref="B2" r:id="rId1" display="http://192.168.1.131/api/useredit/user_info?id=1478767953618" tooltip="http://192.168.1.131/api/useredit/user_info?id=1478767953618"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
